--- a/people.xlsx
+++ b/people.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -1448,6 +1448,46 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manh</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>21</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not Subcribed</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Penaldo</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Subcribed</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
